--- a/example/import-view/src/assest/examples.xlsx
+++ b/example/import-view/src/assest/examples.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shunj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\星星魔法术\element-import-excel\example\import-view\src\assest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A61DA92-9C79-46DF-9475-D69C9D1E5806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5592AB32-B5D7-4811-A8B8-6B35DF5258F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
